--- a/NH's data 2023.xlsx
+++ b/NH's data 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmas\OneDrive\Documents\GitHub\NH-Freelance-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B868E8-1789-48D7-9FEE-3A26270B06DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E8E9C7-E3C3-4BC8-8303-29F9F1E553E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" tabRatio="1000" firstSheet="25" activeTab="35" xr2:uid="{1786FAAB-531F-4ABE-B192-BEB252337BAA}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" tabRatio="1000" activeTab="7" xr2:uid="{1786FAAB-531F-4ABE-B192-BEB252337BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratings" sheetId="6" r:id="rId1"/>
@@ -2675,116 +2675,6 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="J132:K132"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="J138:K138"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:K12"/>
@@ -2802,6 +2692,116 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="J132:K132"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="J138:K138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3915,16 +3915,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4983,36 +4983,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6032,46 +6032,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6744,6 +6744,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
@@ -6751,18 +6763,6 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7229,36 +7229,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8012,46 +8012,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8778,56 +8778,56 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="F57:G57"/>
     <mergeCell ref="H57:I57"/>
     <mergeCell ref="J57:K57"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14353,7 +14353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7519EB-8B82-47B8-A70E-394BF626555A}">
   <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -16730,9 +16730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A480595-F9A6-442A-99AB-86A52BBA1189}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
